--- a/fossil.xlsx
+++ b/fossil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\Desktop\Applied Data 1\assignment 2 applied\Assignment2-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\Desktop\Applied Data 1\assignment 2 applied\Assignment2-git\ads-assignment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD18709-FAB3-4F79-AEB0-3C5AFB9506B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB07B2-0B56-4393-B0E0-753C968D7D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_EG.USE.COMM.FO.ZS_DS2_en_cs" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="541">
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>World Development Indicators</t>
-  </si>
-  <si>
-    <t>Last Updated Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="538">
   <si>
     <t>Country Name</t>
   </si>
@@ -1648,7 +1639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2483,41 +2474,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM271"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:BM271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44523</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
       <c r="E5">
         <v>1960</v>
@@ -2705,30 +2685,30 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <v>47.115992933623602</v>
@@ -2865,30 +2845,30 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P9">
         <v>11.0983449980257</v>
@@ -3025,16 +3005,16 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P10">
         <v>15.834196369121001</v>
@@ -3171,16 +3151,16 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P11">
         <v>74.660703287542702</v>
@@ -3317,30 +3297,30 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P13">
         <v>82.2465192248725</v>
@@ -3477,16 +3457,16 @@
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <v>100</v>
@@ -3605,16 +3585,16 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <v>92.8843965417758</v>
@@ -3751,16 +3731,16 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16">
         <v>97.044055183794597</v>
@@ -3840,30 +3820,30 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -3883,16 +3863,16 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>85.906692105101399</v>
@@ -4065,16 +4045,16 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>85.440747088876194</v>
@@ -4247,16 +4227,16 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI21">
         <v>99.904994215370095</v>
@@ -4336,30 +4316,30 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>99.922058576307904</v>
@@ -4508,16 +4488,16 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P24">
         <v>9.0404514841019505</v>
@@ -4654,30 +4634,30 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P26">
         <v>21.3797084279832</v>
@@ -4814,16 +4794,16 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>97.521612799779305</v>
@@ -4960,16 +4940,16 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <v>100</v>
@@ -5049,16 +5029,16 @@
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -5078,16 +5058,16 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI30">
         <v>93.925569383019507</v>
@@ -5167,16 +5147,16 @@
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI31">
         <v>95.618631849262897</v>
@@ -5256,16 +5236,16 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -5285,30 +5265,30 @@
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P34">
         <v>73.366998616548898</v>
@@ -5445,16 +5425,16 @@
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P35">
         <v>43.654315820964101</v>
@@ -5591,16 +5571,16 @@
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -5620,16 +5600,16 @@
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P37">
         <v>91.054897071516805</v>
@@ -5736,16 +5716,16 @@
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -5765,16 +5745,16 @@
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z39">
         <v>50.977414918396398</v>
@@ -5881,30 +5861,30 @@
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>83.192441025364602</v>
@@ -6077,16 +6057,16 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>98.246903123126799</v>
@@ -6259,16 +6239,16 @@
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>74.571978736386995</v>
@@ -6441,30 +6421,30 @@
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P45">
         <v>79.217911138475401</v>
@@ -6604,16 +6584,16 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P46">
         <v>59.899342757440301</v>
@@ -6750,16 +6730,16 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P47">
         <v>33.2285777133267</v>
@@ -6896,16 +6876,16 @@
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P48">
         <v>9.0070996981654297</v>
@@ -7042,16 +7022,16 @@
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P49">
         <v>12.2748199450421</v>
@@ -7188,16 +7168,16 @@
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P50">
         <v>37.720443640368103</v>
@@ -7334,16 +7314,16 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P51">
         <v>63.938178141583002</v>
@@ -7480,16 +7460,16 @@
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -7509,16 +7489,16 @@
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -7538,16 +7518,16 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P54">
         <v>58.283963253066503</v>
@@ -7684,16 +7664,16 @@
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P55">
         <v>93.221360762353299</v>
@@ -7830,16 +7810,16 @@
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P56">
         <v>63.482797878649798</v>
@@ -7976,16 +7956,16 @@
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P57">
         <v>100</v>
@@ -7999,30 +7979,30 @@
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P59">
         <v>98.446411146740303</v>
@@ -8159,16 +8139,16 @@
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P60">
         <v>99.420763785708203</v>
@@ -8302,16 +8282,16 @@
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>99.020158921578201</v>
@@ -8484,16 +8464,16 @@
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -8513,16 +8493,16 @@
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -8542,16 +8522,16 @@
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>99.874046949192703</v>
@@ -8715,16 +8695,16 @@
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P65">
         <v>48.218276651295803</v>
@@ -8861,16 +8841,16 @@
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P66">
         <v>98.999815555724297</v>
@@ -8995,16 +8975,16 @@
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P67">
         <v>56.933849899819897</v>
@@ -9141,16 +9121,16 @@
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>44.199071887423898</v>
@@ -9323,16 +9303,16 @@
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>91.148056215704102</v>
@@ -9505,16 +9485,16 @@
     </row>
     <row r="70" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>44.199071887423898</v>
@@ -9687,16 +9667,16 @@
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>93.752876129511804</v>
@@ -9869,16 +9849,16 @@
     </row>
     <row r="72" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P72">
         <v>49.057613413401498</v>
@@ -10015,16 +9995,16 @@
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P73">
         <v>86.083051598503204</v>
@@ -10161,16 +10141,16 @@
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>94.021506505618504</v>
@@ -10343,16 +10323,16 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK75">
         <v>19.3553828846029</v>
@@ -10426,16 +10406,16 @@
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>91.765260653812206</v>
@@ -10608,16 +10588,16 @@
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI77">
         <v>43.736580724340001</v>
@@ -10700,16 +10680,16 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P78">
         <v>3.4439943942815598</v>
@@ -10846,16 +10826,16 @@
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>93.761062899617102</v>
@@ -11028,16 +11008,16 @@
     </row>
     <row r="80" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P80">
         <v>30.913360642763202</v>
@@ -11174,16 +11154,16 @@
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>45.245968380851899</v>
@@ -11356,16 +11336,16 @@
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -11385,16 +11365,16 @@
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>95.520180620662401</v>
@@ -11567,44 +11547,44 @@
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P86">
         <v>54.562745279379101</v>
@@ -11741,16 +11721,16 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>99.464710202147401</v>
@@ -11923,16 +11903,16 @@
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI88">
         <v>88.840925007132796</v>
@@ -12012,16 +11992,16 @@
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P89">
         <v>21.997532394415099</v>
@@ -12158,16 +12138,16 @@
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P90">
         <v>100</v>
@@ -12277,30 +12257,30 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI92">
         <v>0</v>
@@ -12320,16 +12300,16 @@
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI93">
         <v>0</v>
@@ -12349,16 +12329,16 @@
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW94">
         <v>0</v>
@@ -12375,16 +12355,16 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>98.311038622389503</v>
@@ -12557,16 +12537,16 @@
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI96">
         <v>0</v>
@@ -12586,30 +12566,30 @@
     </row>
     <row r="97" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P98">
         <v>29.283041830879501</v>
@@ -12746,30 +12726,30 @@
     </row>
     <row r="99" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI100">
         <v>0</v>
@@ -12789,16 +12769,16 @@
     </row>
     <row r="101" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E101">
         <v>94.427324055720007</v>
@@ -12971,16 +12951,16 @@
     </row>
     <row r="102" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P102">
         <v>98.381823003707495</v>
@@ -13087,16 +13067,16 @@
     </row>
     <row r="103" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P103">
         <v>27.1354939027024</v>
@@ -13233,16 +13213,16 @@
     </row>
     <row r="104" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P104">
         <v>15.3113189511919</v>
@@ -13379,16 +13359,16 @@
     </row>
     <row r="105" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI105">
         <v>81.051276985315198</v>
@@ -13468,16 +13448,16 @@
     </row>
     <row r="106" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P106">
         <v>8.4003600163788796</v>
@@ -13614,16 +13594,16 @@
     </row>
     <row r="107" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J107">
         <v>94.769975452492204</v>
@@ -13781,16 +13761,16 @@
     </row>
     <row r="108" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E108">
         <v>89.339759454881005</v>
@@ -13963,16 +13943,16 @@
     </row>
     <row r="109" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E109">
         <v>89.339759454881005</v>
@@ -14145,16 +14125,16 @@
     </row>
     <row r="110" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P110">
         <v>16.8190137419117</v>
@@ -14291,16 +14271,16 @@
     </row>
     <row r="111" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P111">
         <v>18.3296199036402</v>
@@ -14437,16 +14417,16 @@
     </row>
     <row r="112" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P112">
         <v>24.676553877612701</v>
@@ -14583,16 +14563,16 @@
     </row>
     <row r="113" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P113">
         <v>15.549253863973099</v>
@@ -14729,30 +14709,30 @@
     </row>
     <row r="114" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P115">
         <v>35.119793432314097</v>
@@ -14889,30 +14869,30 @@
     </row>
     <row r="116" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E117">
         <v>67.241869690405295</v>
@@ -15085,16 +15065,16 @@
     </row>
     <row r="118" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P118">
         <v>97.727346518635002</v>
@@ -15231,16 +15211,16 @@
     </row>
     <row r="119" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P119">
         <v>99.0728012057494</v>
@@ -15377,16 +15357,16 @@
     </row>
     <row r="120" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E120">
         <v>72.127727974813595</v>
@@ -15559,16 +15539,16 @@
     </row>
     <row r="121" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P121">
         <v>99.984545328620896</v>
@@ -15672,16 +15652,16 @@
     </row>
     <row r="122" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E122">
         <v>85.610420895465793</v>
@@ -15854,16 +15834,16 @@
     </row>
     <row r="123" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P123">
         <v>86.220600904480406</v>
@@ -16000,16 +15980,16 @@
     </row>
     <row r="124" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P124">
         <v>99.234270556382697</v>
@@ -16140,16 +16120,16 @@
     </row>
     <row r="125" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E125">
         <v>93.776380489359795</v>
@@ -16322,16 +16302,16 @@
     </row>
     <row r="126" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI126">
         <v>96.951402930914298</v>
@@ -16411,16 +16391,16 @@
     </row>
     <row r="127" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P127">
         <v>21.0622979543298</v>
@@ -16557,16 +16537,16 @@
     </row>
     <row r="128" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI128">
         <v>93.523935164814304</v>
@@ -16646,16 +16626,16 @@
     </row>
     <row r="129" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AN129">
         <v>18.024648706577501</v>
@@ -16720,16 +16700,16 @@
     </row>
     <row r="130" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI130">
         <v>0</v>
@@ -16749,16 +16729,16 @@
     </row>
     <row r="131" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -16778,16 +16758,16 @@
     </row>
     <row r="132" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P132">
         <v>99.331087046303495</v>
@@ -16927,16 +16907,16 @@
     </row>
     <row r="133" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P133">
         <v>99.819771701020997</v>
@@ -17055,16 +17035,16 @@
     </row>
     <row r="134" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P134">
         <v>63.674394279412802</v>
@@ -17204,30 +17184,30 @@
     </row>
     <row r="135" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P136">
         <v>90.884276818031793</v>
@@ -17364,30 +17344,30 @@
     </row>
     <row r="137" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P138">
         <v>93.820776797343001</v>
@@ -17524,16 +17504,16 @@
     </row>
     <row r="139" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI139">
         <v>0</v>
@@ -17553,16 +17533,16 @@
     </row>
     <row r="140" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P140">
         <v>67.970819244026202</v>
@@ -17702,16 +17682,16 @@
     </row>
     <row r="141" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P141">
         <v>14.0353001286101</v>
@@ -17848,16 +17828,16 @@
     </row>
     <row r="142" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P142">
         <v>40.314599188088302</v>
@@ -17994,30 +17974,30 @@
     </row>
     <row r="143" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P144">
         <v>26.0117775767892</v>
@@ -18154,16 +18134,16 @@
     </row>
     <row r="145" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P145">
         <v>34.911179712899902</v>
@@ -18300,16 +18280,16 @@
     </row>
     <row r="146" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E146">
         <v>44.199071887423898</v>
@@ -18482,16 +18462,16 @@
     </row>
     <row r="147" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW147">
         <v>0</v>
@@ -18508,16 +18488,16 @@
     </row>
     <row r="148" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E148">
         <v>96.026126086866697</v>
@@ -18690,16 +18670,16 @@
     </row>
     <row r="149" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI149">
         <v>75.753426269233401</v>
@@ -18779,16 +18759,16 @@
     </row>
     <row r="150" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E150">
         <v>99.924516515265907</v>
@@ -18961,16 +18941,16 @@
     </row>
     <row r="151" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI151">
         <v>81.768078968332205</v>
@@ -19050,44 +19030,44 @@
     </row>
     <row r="152" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P154">
         <v>73.5645461366814</v>
@@ -19224,30 +19204,30 @@
     </row>
     <row r="155" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK156">
         <v>99.728656772143296</v>
@@ -19321,30 +19301,30 @@
     </row>
     <row r="157" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI158">
         <v>0</v>
@@ -19364,16 +19344,16 @@
     </row>
     <row r="159" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P159">
         <v>95.084040002292497</v>
@@ -19513,16 +19493,16 @@
     </row>
     <row r="160" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P160">
         <v>83.192252602740993</v>
@@ -19662,16 +19642,16 @@
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW161">
         <v>0</v>
@@ -19688,16 +19668,16 @@
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E162">
         <v>44.199071887423898</v>
@@ -19870,16 +19850,16 @@
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI163">
         <v>98.003826110966898</v>
@@ -19959,30 +19939,30 @@
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q165">
         <v>100</v>
@@ -20089,16 +20069,16 @@
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P166">
         <v>19.089697219324002</v>
@@ -20235,16 +20215,16 @@
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P167">
         <v>92.5780347989907</v>
@@ -20381,16 +20361,16 @@
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX168">
         <v>52.576075727003897</v>
@@ -20425,16 +20405,16 @@
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD169">
         <v>97.118895677030395</v>
@@ -20529,30 +20509,30 @@
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P171">
         <v>13.442482126264</v>
@@ -20689,30 +20669,30 @@
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P173">
         <v>23.383188342160899</v>
@@ -20849,30 +20829,30 @@
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P175">
         <v>75.233038695062604</v>
@@ -21009,16 +20989,16 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>94.668441867781596</v>
@@ -21191,16 +21171,16 @@
     </row>
     <row r="177" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ177">
         <v>54.322418469653996</v>
@@ -21277,30 +21257,30 @@
     </row>
     <row r="178" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B178" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS179">
         <v>14.3686786696644</v>
@@ -21350,16 +21330,16 @@
     </row>
     <row r="180" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P180">
         <v>5.9677695662688501</v>
@@ -21496,16 +21476,16 @@
     </row>
     <row r="181" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P181">
         <v>41.384790645299901</v>
@@ -21642,16 +21622,16 @@
     </row>
     <row r="182" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E182">
         <v>99.951620669431307</v>
@@ -21809,16 +21789,16 @@
     </row>
     <row r="183" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E183">
         <v>60.497624833222702</v>
@@ -21991,16 +21971,16 @@
     </row>
     <row r="184" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P184">
         <v>1.6538690979040001</v>
@@ -22137,30 +22117,30 @@
     </row>
     <row r="185" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E186">
         <v>79.279443310783194</v>
@@ -22333,16 +22313,16 @@
     </row>
     <row r="187" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E187">
         <v>94.1345468013334</v>
@@ -22515,16 +22495,16 @@
     </row>
     <row r="188" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P188">
         <v>100</v>
@@ -22625,16 +22605,16 @@
     </row>
     <row r="189" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E189">
         <v>72.127727974813595</v>
@@ -22780,16 +22760,16 @@
     </row>
     <row r="190" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P190">
         <v>35.600352154008696</v>
@@ -22926,16 +22906,16 @@
     </row>
     <row r="191" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P191">
         <v>79.296799042478597</v>
@@ -23072,16 +23052,16 @@
     </row>
     <row r="192" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P192">
         <v>58.199191881169703</v>
@@ -23218,16 +23198,16 @@
     </row>
     <row r="193" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P193">
         <v>51.680871406747499</v>
@@ -23364,16 +23344,16 @@
     </row>
     <row r="194" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI194">
         <v>0</v>
@@ -23381,30 +23361,30 @@
     </row>
     <row r="195" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E196">
         <v>98.246903123126799</v>
@@ -23577,16 +23557,16 @@
     </row>
     <row r="197" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P197">
         <v>16.540805103379999</v>
@@ -23723,30 +23703,30 @@
     </row>
     <row r="198" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P199">
         <v>92.433682272429607</v>
@@ -23883,16 +23863,16 @@
     </row>
     <row r="200" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E200">
         <v>67.3557987926756</v>
@@ -24065,16 +24045,16 @@
     </row>
     <row r="201" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P201">
         <v>14.6123649777344</v>
@@ -24211,30 +24191,30 @@
     </row>
     <row r="202" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI203">
         <v>0</v>
@@ -24254,16 +24234,16 @@
     </row>
     <row r="204" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E204">
         <v>94.374374417527406</v>
@@ -24436,30 +24416,30 @@
     </row>
     <row r="205" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P206">
         <v>100</v>
@@ -24536,16 +24516,16 @@
     </row>
     <row r="207" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P207">
         <v>96.4352950830541</v>
@@ -24682,16 +24662,16 @@
     </row>
     <row r="208" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI208">
         <v>93.396150549414898</v>
@@ -24771,30 +24751,30 @@
     </row>
     <row r="209" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P210">
         <v>33.872870425448397</v>
@@ -24931,16 +24911,16 @@
     </row>
     <row r="211" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P211">
         <v>99.980008404352702</v>
@@ -25077,16 +25057,16 @@
     </row>
     <row r="212" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B212" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P212">
         <v>19.355001197382901</v>
@@ -25223,16 +25203,16 @@
     </row>
     <row r="213" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B213" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P213">
         <v>33.561818681093001</v>
@@ -25369,16 +25349,16 @@
     </row>
     <row r="214" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B214" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P214">
         <v>99.632651461684603</v>
@@ -25503,16 +25483,16 @@
     </row>
     <row r="215" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI215">
         <v>0</v>
@@ -25532,30 +25512,30 @@
     </row>
     <row r="216" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P217">
         <v>28.374251074907601</v>
@@ -25692,44 +25672,44 @@
     </row>
     <row r="218" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B218" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI220">
         <v>90.818919366937294</v>
@@ -25809,16 +25789,16 @@
     </row>
     <row r="221" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P221">
         <v>36.224906195061997</v>
@@ -25955,16 +25935,16 @@
     </row>
     <row r="222" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B222" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BE222">
         <v>70.068469856335994</v>
@@ -25978,16 +25958,16 @@
     </row>
     <row r="223" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P223">
         <v>36.224906195061997</v>
@@ -26124,16 +26104,16 @@
     </row>
     <row r="224" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E224">
         <v>72.127727974813595</v>
@@ -26291,16 +26271,16 @@
     </row>
     <row r="225" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B225" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI225">
         <v>0</v>
@@ -26320,16 +26300,16 @@
     </row>
     <row r="226" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B226" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS226">
         <v>75.584843074639807</v>
@@ -26379,16 +26359,16 @@
     </row>
     <row r="227" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P227">
         <v>96.191632130406404</v>
@@ -26528,16 +26508,16 @@
     </row>
     <row r="228" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B228" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI228">
         <v>71.275040394936894</v>
@@ -26620,16 +26600,16 @@
     </row>
     <row r="229" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E229">
         <v>74.493448660097698</v>
@@ -26802,16 +26782,16 @@
     </row>
     <row r="230" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B230" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI230">
         <v>0</v>
@@ -26831,30 +26811,30 @@
     </row>
     <row r="231" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B231" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B232" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI232">
         <v>0</v>
@@ -26874,16 +26854,16 @@
     </row>
     <row r="233" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B233" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q233">
         <v>99.666735875678398</v>
@@ -27011,44 +26991,44 @@
     </row>
     <row r="234" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B234" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B236" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D236" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P236">
         <v>55.504914287438403</v>
@@ -27185,16 +27165,16 @@
     </row>
     <row r="237" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B237" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E237">
         <v>89.339759454881005</v>
@@ -27367,16 +27347,16 @@
     </row>
     <row r="238" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B238" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P238">
         <v>15.492196110645599</v>
@@ -27513,16 +27493,16 @@
     </row>
     <row r="239" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B239" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P239">
         <v>43.2163467579105</v>
@@ -27659,16 +27639,16 @@
     </row>
     <row r="240" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B240" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI240">
         <v>71.321218972257597</v>
@@ -27748,30 +27728,30 @@
     </row>
     <row r="241" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B241" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B242" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P242">
         <v>67.391103055847495</v>
@@ -27911,16 +27891,16 @@
     </row>
     <row r="243" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B243" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW243">
         <v>0</v>
@@ -27937,16 +27917,16 @@
     </row>
     <row r="244" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B244" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P244">
         <v>92.5780347989907</v>
@@ -28083,16 +28063,16 @@
     </row>
     <row r="245" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B245" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI245">
         <v>0</v>
@@ -28112,16 +28092,16 @@
     </row>
     <row r="246" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B246" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D246" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P246">
         <v>33.872870425448397</v>
@@ -28258,16 +28238,16 @@
     </row>
     <row r="247" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B247" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P247">
         <v>36.224906195061997</v>
@@ -28404,16 +28384,16 @@
     </row>
     <row r="248" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B248" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D248" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P248">
         <v>98.557718556444797</v>
@@ -28550,16 +28530,16 @@
     </row>
     <row r="249" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B249" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D249" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P249">
         <v>74.663699068649393</v>
@@ -28696,16 +28676,16 @@
     </row>
     <row r="250" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B250" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D250" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E250">
         <v>44.199071887423898</v>
@@ -28878,30 +28858,30 @@
     </row>
     <row r="251" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B251" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B252" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D252" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P252">
         <v>9.2942248182643006</v>
@@ -29038,30 +29018,30 @@
     </row>
     <row r="253" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B253" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B254" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI254">
         <v>91.830209810489194</v>
@@ -29141,16 +29121,16 @@
     </row>
     <row r="255" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B255" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D255" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E255">
         <v>44.199071887423898</v>
@@ -29323,16 +29303,16 @@
     </row>
     <row r="256" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B256" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P256">
         <v>78.373669277941701</v>
@@ -29469,16 +29449,16 @@
     </row>
     <row r="257" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B257" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E257">
         <v>95.525669552739203</v>
@@ -29651,16 +29631,16 @@
     </row>
     <row r="258" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B258" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI258">
         <v>99.159376669377593</v>
@@ -29737,16 +29717,16 @@
     </row>
     <row r="259" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B259" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI259">
         <v>0</v>
@@ -29766,16 +29746,16 @@
     </row>
     <row r="260" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B260" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P260">
         <v>94.862190639694703</v>
@@ -29909,44 +29889,44 @@
     </row>
     <row r="261" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B261" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D261" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B262" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B263" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P263">
         <v>37.144639837366398</v>
@@ -30080,16 +30060,16 @@
     </row>
     <row r="264" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B264" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI264">
         <v>0</v>
@@ -30109,16 +30089,16 @@
     </row>
     <row r="265" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B265" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E265">
         <v>94.1345468013334</v>
@@ -30291,16 +30271,16 @@
     </row>
     <row r="266" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B266" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D266" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI266">
         <v>0</v>
@@ -30320,16 +30300,16 @@
     </row>
     <row r="267" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B267" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS267">
         <v>83.9226742887478</v>
@@ -30379,16 +30359,16 @@
     </row>
     <row r="268" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B268" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C268" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P268">
         <v>93.374813001495994</v>
@@ -30522,16 +30502,16 @@
     </row>
     <row r="269" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B269" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P269">
         <v>89.636537854504198</v>
@@ -30668,16 +30648,16 @@
     </row>
     <row r="270" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B270" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P270">
         <v>27.527914670519401</v>
@@ -30811,16 +30791,16 @@
     </row>
     <row r="271" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B271" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P271">
         <v>39.785443808151797</v>
